--- a/BugReport.xlsx
+++ b/BugReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HaiAnh\Relax\NABTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HaiAnh\Relax\NABTest\OpenWeatherMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80C1C99-5056-4D0E-9930-34314DDAE7BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8191A-5355-4042-A2EE-F77980C31B72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug 1" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,6 @@
     <t>Input "london@#", hit enter.</t>
   </si>
   <si>
-    <t>When looking into API in Network, I can see "cod: 401
-message: "Invalid API key. Please see http://openweathermap.org/faq#error401 for more info.""</t>
-  </si>
-  <si>
     <t>the search page does not show the forcecast cities or "not found"</t>
   </si>
   <si>
@@ -150,10 +146,6 @@
   </si>
   <si>
     <t>Input "US", hit enter.</t>
-  </si>
-  <si>
-    <t>When looking into API in Network, I can see "cod: 500
-message: "Internal server error""</t>
   </si>
   <si>
     <t>Search function should show "not found" or consider show cities of country with provided code or show the instruction of keyword clearer "To make it more precise put the city's name, comma, 2-letter country code (ISO3166). You will get all proper cities in chosen country.
@@ -166,10 +158,20 @@
     <t>Search weather in my city - Does not show "not found" when inputting keyword with special characters</t>
   </si>
   <si>
-    <t>Does not show "not found" when inputting keyword with correct city and special characters</t>
-  </si>
-  <si>
     <t>The search page does not show "not found"</t>
+  </si>
+  <si>
+    <t>Does not show "not found" when inputting keyword with special characters</t>
+  </si>
+  <si>
+    <t>When looking into the API in Network, I can see "cod: 500
+message: "Internal server error""</t>
+  </si>
+  <si>
+    <t>When looking into the API in Network, I can see "cod: 401
+message: "Invalid API key. Please see http://openweathermap.org/faq#error401 for more info."". 
+It seems special characters breaking the API
+https://openweathermap.org/data/2.5/find?callback=jQuery191016810639118790727_1620900682983&amp;q=london&amp;_=1620900682991</t>
   </si>
 </sst>
 </file>
@@ -779,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -820,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -850,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -917,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -926,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -967,7 +969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
@@ -975,7 +977,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -3952,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50940041-6C75-472D-94E6-27098F0B81D7}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3991,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4020,7 +4022,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4076,7 +4078,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4085,7 +4087,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4094,7 +4096,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
@@ -4143,7 +4145,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
